--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA91940-CCEF-498A-BF13-7B484B2171E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4925B-3DCA-464E-87B2-E2B444CA3E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="11940" xr2:uid="{906FD63D-31C1-4B6A-AD5A-0A413E364069}"/>
   </bookViews>
@@ -27,34 +27,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>인공지능</t>
+  </si>
+  <si>
+    <t>빅데이터분석</t>
+  </si>
+  <si>
+    <t>로봇공학</t>
+  </si>
+  <si>
+    <t>사물인터넷</t>
+  </si>
+  <si>
+    <t>3D프린팅</t>
+  </si>
+  <si>
+    <t>07월</t>
+  </si>
+  <si>
+    <t>08월</t>
+  </si>
+  <si>
+    <t>09월</t>
+  </si>
+  <si>
+    <t>10월</t>
+  </si>
+  <si>
     <t>평가월</t>
-  </si>
-  <si>
-    <t>인공지능</t>
-  </si>
-  <si>
-    <t>빅데이터분석</t>
-  </si>
-  <si>
-    <t>로봇공학</t>
-  </si>
-  <si>
-    <t>사물인터넷</t>
-  </si>
-  <si>
-    <t>3D프린팅</t>
-  </si>
-  <si>
-    <t>07월</t>
-  </si>
-  <si>
-    <t>08월</t>
-  </si>
-  <si>
-    <t>09월</t>
-  </si>
-  <si>
-    <t>10월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,111 +419,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7DB29D-126C-4B58-80AE-E17271875DA2}">
-  <dimension ref="B2:G6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>86</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>89</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>86</v>
+      </c>
       <c r="C3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D3">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
         <v>86</v>
       </c>
-      <c r="E3">
-        <v>94</v>
-      </c>
-      <c r="F3">
-        <v>82</v>
-      </c>
-      <c r="G3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>83</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+      <c r="F4">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>86</v>
-      </c>
-      <c r="D4">
-        <v>86</v>
-      </c>
-      <c r="E4">
-        <v>84</v>
-      </c>
-      <c r="F4">
-        <v>90</v>
-      </c>
-      <c r="G4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>8</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
       </c>
       <c r="C5">
         <v>90</v>
       </c>
       <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5">
         <v>84</v>
       </c>
-      <c r="E5">
-        <v>83</v>
-      </c>
       <c r="F5">
-        <v>90</v>
-      </c>
-      <c r="G5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>89</v>
-      </c>
-      <c r="D6">
-        <v>90</v>
-      </c>
-      <c r="E6">
-        <v>86</v>
-      </c>
-      <c r="F6">
-        <v>84</v>
-      </c>
-      <c r="G6">
         <v>79</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4925B-3DCA-464E-87B2-E2B444CA3E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A61FD0-F582-477C-A6D6-DB8732B14812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="11940" xr2:uid="{906FD63D-31C1-4B6A-AD5A-0A413E364069}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{906FD63D-31C1-4B6A-AD5A-0A413E364069}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,114 +422,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7DB29D-126C-4B58-80AE-E17271875DA2}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>85</v>
-      </c>
-      <c r="C2">
-        <v>86</v>
-      </c>
-      <c r="D2">
-        <v>94</v>
-      </c>
-      <c r="E2">
-        <v>82</v>
-      </c>
-      <c r="F2">
-        <v>89</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>86</v>
       </c>
       <c r="D3">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F3">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4">
+        <v>86</v>
+      </c>
+      <c r="D4">
         <v>84</v>
-      </c>
-      <c r="D4">
-        <v>83</v>
       </c>
       <c r="E4">
         <v>90</v>
       </c>
       <c r="F4">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>83</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>89</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>90</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>86</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>84</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>79</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25C457F-80D5-45D7-864D-09604C3D88FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176172B9-7763-44F1-A344-DB9E17A22421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="348" windowWidth="17280" windowHeight="11940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="출근" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="333">
   <si>
     <t>탑승 일시</t>
   </si>
@@ -596,66 +596,15 @@
     <t>08:00:49</t>
   </si>
   <si>
-    <t>2023-04-18</t>
-  </si>
-  <si>
-    <t>08:23:16</t>
-  </si>
-  <si>
     <t>지하철</t>
   </si>
   <si>
-    <t>새서울철도</t>
-  </si>
-  <si>
-    <t>1,900원</t>
-  </si>
-  <si>
-    <t>7,750원</t>
-  </si>
-  <si>
-    <t>논현</t>
-  </si>
-  <si>
-    <t>07:52:34</t>
-  </si>
-  <si>
-    <t>경기철도</t>
-  </si>
-  <si>
-    <t>1,550원</t>
-  </si>
-  <si>
-    <t>7,450원</t>
-  </si>
-  <si>
     <t>동천</t>
   </si>
   <si>
     <t>학동</t>
   </si>
   <si>
-    <t>08:28:58</t>
-  </si>
-  <si>
-    <t>2023-04-17</t>
-  </si>
-  <si>
-    <t>08:28:31</t>
-  </si>
-  <si>
-    <t>4,850원</t>
-  </si>
-  <si>
-    <t>07:55:36</t>
-  </si>
-  <si>
-    <t>4,550원</t>
-  </si>
-  <si>
-    <t>08:36:52</t>
-  </si>
-  <si>
     <t>18:13:29</t>
   </si>
   <si>
@@ -1071,60 +1020,6 @@
   </si>
   <si>
     <t>18:56:51</t>
-  </si>
-  <si>
-    <t>18:27:16</t>
-  </si>
-  <si>
-    <t>2,750원</t>
-  </si>
-  <si>
-    <t>미금</t>
-  </si>
-  <si>
-    <t>18:55:36</t>
-  </si>
-  <si>
-    <t>18:19:55</t>
-  </si>
-  <si>
-    <t>1,250원</t>
-  </si>
-  <si>
-    <t>6,200원</t>
-  </si>
-  <si>
-    <t>18:25:58</t>
-  </si>
-  <si>
-    <t>18:48:30</t>
-  </si>
-  <si>
-    <t>성남시내버스(사송)</t>
-  </si>
-  <si>
-    <t>200원</t>
-  </si>
-  <si>
-    <t>10,900원</t>
-  </si>
-  <si>
-    <t>미금역.2001아울렛</t>
-  </si>
-  <si>
-    <t>쇳골마을.궁내동톨게이트</t>
-  </si>
-  <si>
-    <t>18:50:59</t>
-  </si>
-  <si>
-    <t>18:03:17</t>
-  </si>
-  <si>
-    <t>11,100원</t>
-  </si>
-  <si>
-    <t>18:40:02</t>
   </si>
 </sst>
 </file>
@@ -1471,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H61" sqref="G58:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3487,128 +3382,6 @@
       </c>
       <c r="K57" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" t="s">
-        <v>195</v>
-      </c>
-      <c r="F58" t="s">
-        <v>196</v>
-      </c>
-      <c r="G58" t="s">
-        <v>197</v>
-      </c>
-      <c r="I58" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" t="s">
-        <v>199</v>
-      </c>
-      <c r="E59" t="s">
-        <v>200</v>
-      </c>
-      <c r="F59" t="s">
-        <v>201</v>
-      </c>
-      <c r="G59" t="s">
-        <v>202</v>
-      </c>
-      <c r="H59" t="s">
-        <v>203</v>
-      </c>
-      <c r="I59" t="s">
-        <v>191</v>
-      </c>
-      <c r="J59" t="s">
-        <v>204</v>
-      </c>
-      <c r="K59" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" t="s">
-        <v>206</v>
-      </c>
-      <c r="C60" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" t="s">
-        <v>195</v>
-      </c>
-      <c r="F60" t="s">
-        <v>207</v>
-      </c>
-      <c r="G60" t="s">
-        <v>197</v>
-      </c>
-      <c r="I60" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" t="s">
-        <v>199</v>
-      </c>
-      <c r="E61" t="s">
-        <v>200</v>
-      </c>
-      <c r="F61" t="s">
-        <v>209</v>
-      </c>
-      <c r="G61" t="s">
-        <v>202</v>
-      </c>
-      <c r="H61" t="s">
-        <v>203</v>
-      </c>
-      <c r="I61" t="s">
-        <v>205</v>
-      </c>
-      <c r="J61" t="s">
-        <v>210</v>
-      </c>
-      <c r="K61" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3620,9 +3393,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -3669,7 +3444,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -3678,10 +3453,10 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -3693,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
@@ -3704,34 +3479,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" t="s">
         <v>193</v>
       </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" t="s">
-        <v>203</v>
-      </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K3" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -3739,7 +3514,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -3748,7 +3523,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
@@ -3763,7 +3538,7 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -3774,42 +3549,42 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" t="s">
         <v>193</v>
       </c>
-      <c r="D5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G5" t="s">
-        <v>203</v>
-      </c>
       <c r="H5" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I5" t="s">
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="K5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -3818,10 +3593,10 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
@@ -3830,10 +3605,10 @@
         <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="J6" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
@@ -3841,37 +3616,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" t="s">
         <v>193</v>
       </c>
-      <c r="D7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I7" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" t="s">
-        <v>234</v>
-      </c>
       <c r="K7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -3879,7 +3654,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -3888,10 +3663,10 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -3903,7 +3678,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K8" t="s">
         <v>30</v>
@@ -3914,34 +3689,34 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
         <v>193</v>
       </c>
-      <c r="D9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" t="s">
-        <v>203</v>
-      </c>
       <c r="H9" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K9" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
@@ -3949,7 +3724,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -3958,7 +3733,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>124</v>
@@ -3973,7 +3748,7 @@
         <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K10" t="s">
         <v>30</v>
@@ -3984,42 +3759,42 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" t="s">
         <v>193</v>
       </c>
-      <c r="D11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" t="s">
-        <v>203</v>
-      </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I11" t="s">
         <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="K11" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -4028,10 +3803,10 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -4040,10 +3815,10 @@
         <v>27</v>
       </c>
       <c r="I12" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="J12" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="K12" t="s">
         <v>30</v>
@@ -4051,37 +3826,37 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" t="s">
         <v>193</v>
       </c>
-      <c r="D13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" t="s">
         <v>217</v>
       </c>
-      <c r="F13" t="s">
-        <v>233</v>
-      </c>
-      <c r="G13" t="s">
-        <v>203</v>
-      </c>
-      <c r="H13" t="s">
-        <v>219</v>
-      </c>
-      <c r="I13" t="s">
-        <v>228</v>
-      </c>
-      <c r="J13" t="s">
-        <v>234</v>
-      </c>
       <c r="K13" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -4089,34 +3864,34 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" t="s">
         <v>193</v>
       </c>
-      <c r="D14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" t="s">
-        <v>237</v>
-      </c>
-      <c r="G14" t="s">
-        <v>203</v>
-      </c>
       <c r="H14" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="I14" t="s">
         <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="K14" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
@@ -4124,7 +3899,7 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -4133,10 +3908,10 @@
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -4148,7 +3923,7 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="K15" t="s">
         <v>30</v>
@@ -4159,34 +3934,34 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" t="s">
         <v>193</v>
       </c>
-      <c r="D16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" t="s">
-        <v>244</v>
-      </c>
-      <c r="G16" t="s">
-        <v>203</v>
-      </c>
       <c r="H16" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I16" t="s">
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="K16" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -4194,19 +3969,19 @@
         <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
@@ -4218,7 +3993,7 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="K17" t="s">
         <v>30</v>
@@ -4229,34 +4004,34 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" t="s">
         <v>193</v>
       </c>
-      <c r="D18" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" t="s">
-        <v>251</v>
-      </c>
-      <c r="G18" t="s">
-        <v>203</v>
-      </c>
       <c r="H18" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I18" t="s">
         <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -4264,7 +4039,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -4273,10 +4048,10 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
         <v>28</v>
@@ -4288,7 +4063,7 @@
         <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="K19" t="s">
         <v>30</v>
@@ -4299,34 +4074,34 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" t="s">
         <v>193</v>
       </c>
-      <c r="D20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" t="s">
-        <v>256</v>
-      </c>
-      <c r="G20" t="s">
-        <v>203</v>
-      </c>
       <c r="H20" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I20" t="s">
         <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -4334,7 +4109,7 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -4343,10 +4118,10 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F21" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="G21" t="s">
         <v>28</v>
@@ -4358,7 +4133,7 @@
         <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="K21" t="s">
         <v>30</v>
@@ -4369,34 +4144,34 @@
         <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" t="s">
         <v>193</v>
       </c>
-      <c r="D22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" t="s">
-        <v>203</v>
-      </c>
       <c r="H22" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I22" t="s">
         <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -4404,34 +4179,34 @@
         <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" t="s">
         <v>193</v>
       </c>
-      <c r="D23" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" t="s">
-        <v>203</v>
-      </c>
       <c r="H23" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I23" t="s">
         <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -4439,19 +4214,19 @@
         <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -4463,7 +4238,7 @@
         <v>87</v>
       </c>
       <c r="J24" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="K24" t="s">
         <v>30</v>
@@ -4474,34 +4249,34 @@
         <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" t="s">
         <v>193</v>
       </c>
-      <c r="D25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" t="s">
-        <v>272</v>
-      </c>
-      <c r="G25" t="s">
-        <v>203</v>
-      </c>
       <c r="H25" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="I25" t="s">
         <v>87</v>
       </c>
       <c r="J25" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -4509,7 +4284,7 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -4521,7 +4296,7 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
@@ -4533,7 +4308,7 @@
         <v>94</v>
       </c>
       <c r="J26" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
         <v>30</v>
@@ -4544,7 +4319,7 @@
         <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -4556,19 +4331,19 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I27" t="s">
         <v>94</v>
       </c>
       <c r="J27" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="K27" t="s">
         <v>30</v>
@@ -4579,7 +4354,7 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -4603,7 +4378,7 @@
         <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>30</v>
@@ -4614,7 +4389,7 @@
         <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -4626,19 +4401,19 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I29" t="s">
         <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s">
         <v>30</v>
@@ -4649,19 +4424,19 @@
         <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
         <v>28</v>
@@ -4673,7 +4448,7 @@
         <v>108</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="K30" t="s">
         <v>30</v>
@@ -4684,7 +4459,7 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -4696,19 +4471,19 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I31" t="s">
         <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
         <v>30</v>
@@ -4719,7 +4494,7 @@
         <v>115</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -4731,7 +4506,7 @@
         <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
         <v>28</v>
@@ -4743,7 +4518,7 @@
         <v>115</v>
       </c>
       <c r="J32" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
         <v>30</v>
@@ -4754,7 +4529,7 @@
         <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -4766,19 +4541,19 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I33" t="s">
         <v>115</v>
       </c>
       <c r="J33" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
         <v>30</v>
@@ -4789,7 +4564,7 @@
         <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -4801,7 +4576,7 @@
         <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
         <v>28</v>
@@ -4813,7 +4588,7 @@
         <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="K34" t="s">
         <v>30</v>
@@ -4824,7 +4599,7 @@
         <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -4842,13 +4617,13 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I35" t="s">
         <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s">
         <v>30</v>
@@ -4859,7 +4634,7 @@
         <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -4871,7 +4646,7 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
         <v>28</v>
@@ -4880,10 +4655,10 @@
         <v>27</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
         <v>30</v>
@@ -4894,7 +4669,7 @@
         <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -4912,13 +4687,13 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I37" t="s">
         <v>129</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="K37" t="s">
         <v>30</v>
@@ -4929,19 +4704,19 @@
         <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E38" t="s">
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
         <v>28</v>
@@ -4953,7 +4728,7 @@
         <v>136</v>
       </c>
       <c r="J38" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="K38" t="s">
         <v>30</v>
@@ -4964,7 +4739,7 @@
         <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -4976,19 +4751,19 @@
         <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I39" t="s">
         <v>136</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s">
         <v>30</v>
@@ -4999,7 +4774,7 @@
         <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -5011,7 +4786,7 @@
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="G40" t="s">
         <v>28</v>
@@ -5023,7 +4798,7 @@
         <v>143</v>
       </c>
       <c r="J40" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s">
         <v>30</v>
@@ -5034,7 +4809,7 @@
         <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -5046,19 +4821,19 @@
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I41" t="s">
         <v>143</v>
       </c>
       <c r="J41" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="K41" t="s">
         <v>30</v>
@@ -5069,31 +4844,31 @@
         <v>149</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="G42" t="s">
         <v>28</v>
       </c>
       <c r="H42" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="I42" t="s">
         <v>149</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="K42" t="s">
         <v>30</v>
@@ -5104,7 +4879,7 @@
         <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -5116,19 +4891,19 @@
         <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G43" t="s">
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I43" t="s">
         <v>149</v>
       </c>
       <c r="J43" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s">
         <v>30</v>
@@ -5139,7 +4914,7 @@
         <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -5163,7 +4938,7 @@
         <v>155</v>
       </c>
       <c r="J44" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="K44" t="s">
         <v>30</v>
@@ -5174,7 +4949,7 @@
         <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -5186,19 +4961,19 @@
         <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I45" t="s">
         <v>155</v>
       </c>
       <c r="J45" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
         <v>30</v>
@@ -5209,7 +4984,7 @@
         <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -5221,7 +4996,7 @@
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
         <v>28</v>
@@ -5233,7 +5008,7 @@
         <v>162</v>
       </c>
       <c r="J46" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="K46" t="s">
         <v>30</v>
@@ -5244,7 +5019,7 @@
         <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -5256,19 +5031,19 @@
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I47" t="s">
         <v>162</v>
       </c>
       <c r="J47" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="K47" t="s">
         <v>30</v>
@@ -5279,7 +5054,7 @@
         <v>176</v>
       </c>
       <c r="B48" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -5291,7 +5066,7 @@
         <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="G48" t="s">
         <v>28</v>
@@ -5303,7 +5078,7 @@
         <v>176</v>
       </c>
       <c r="J48" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="K48" t="s">
         <v>30</v>
@@ -5314,7 +5089,7 @@
         <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -5326,19 +5101,19 @@
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G49" t="s">
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I49" t="s">
         <v>176</v>
       </c>
       <c r="J49" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="K49" t="s">
         <v>30</v>
@@ -5349,7 +5124,7 @@
         <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -5361,10 +5136,10 @@
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G50" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="H50" t="s">
         <v>27</v>
@@ -5373,7 +5148,7 @@
         <v>183</v>
       </c>
       <c r="J50" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="K50" t="s">
         <v>30</v>
@@ -5384,7 +5159,7 @@
         <v>183</v>
       </c>
       <c r="B51" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -5396,19 +5171,19 @@
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="I51" t="s">
         <v>183</v>
       </c>
       <c r="J51" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="K51" t="s">
         <v>30</v>
@@ -5419,7 +5194,7 @@
         <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -5431,7 +5206,7 @@
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="G52" t="s">
         <v>28</v>
@@ -5443,7 +5218,7 @@
         <v>176</v>
       </c>
       <c r="J52" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="K52" t="s">
         <v>30</v>
@@ -5454,7 +5229,7 @@
         <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -5466,19 +5241,19 @@
         <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G53" t="s">
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="I53" t="s">
         <v>176</v>
       </c>
       <c r="J53" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="K53" t="s">
         <v>30</v>
@@ -5489,7 +5264,7 @@
         <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -5501,10 +5276,10 @@
         <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G54" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="H54" t="s">
         <v>27</v>
@@ -5513,7 +5288,7 @@
         <v>183</v>
       </c>
       <c r="J54" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s">
         <v>30</v>
@@ -5524,7 +5299,7 @@
         <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -5536,162 +5311,22 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="I55" t="s">
         <v>183</v>
       </c>
       <c r="J55" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="K55" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>191</v>
-      </c>
-      <c r="B56" t="s">
-        <v>350</v>
-      </c>
-      <c r="C56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" t="s">
-        <v>265</v>
-      </c>
-      <c r="F56" t="s">
-        <v>351</v>
-      </c>
-      <c r="G56" t="s">
-        <v>197</v>
-      </c>
-      <c r="H56" t="s">
-        <v>352</v>
-      </c>
-      <c r="I56" t="s">
-        <v>191</v>
-      </c>
-      <c r="J56" t="s">
-        <v>353</v>
-      </c>
-      <c r="K56" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" t="s">
-        <v>354</v>
-      </c>
-      <c r="C57" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" t="s">
-        <v>216</v>
-      </c>
-      <c r="E57" t="s">
-        <v>355</v>
-      </c>
-      <c r="F57" t="s">
-        <v>356</v>
-      </c>
-      <c r="G57" t="s">
-        <v>203</v>
-      </c>
-      <c r="H57" t="s">
-        <v>197</v>
-      </c>
-      <c r="I57" t="s">
-        <v>191</v>
-      </c>
-      <c r="J57" t="s">
-        <v>357</v>
-      </c>
-      <c r="K57" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" t="s">
-        <v>358</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>359</v>
-      </c>
-      <c r="E58" t="s">
-        <v>360</v>
-      </c>
-      <c r="F58" t="s">
-        <v>361</v>
-      </c>
-      <c r="G58" t="s">
-        <v>362</v>
-      </c>
-      <c r="H58" t="s">
-        <v>363</v>
-      </c>
-      <c r="I58" t="s">
-        <v>205</v>
-      </c>
-      <c r="J58" t="s">
-        <v>364</v>
-      </c>
-      <c r="K58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" t="s">
-        <v>365</v>
-      </c>
-      <c r="C59" t="s">
-        <v>193</v>
-      </c>
-      <c r="D59" t="s">
-        <v>216</v>
-      </c>
-      <c r="E59" t="s">
-        <v>265</v>
-      </c>
-      <c r="F59" t="s">
-        <v>366</v>
-      </c>
-      <c r="G59" t="s">
-        <v>203</v>
-      </c>
-      <c r="H59" t="s">
-        <v>352</v>
-      </c>
-      <c r="I59" t="s">
-        <v>205</v>
-      </c>
-      <c r="J59" t="s">
-        <v>367</v>
-      </c>
-      <c r="K59" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
